--- a/AAII_Financials/Quarterly/AMYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>AMYT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,156 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E8" s="3">
         <v>62800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>48400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>42500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>49300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>46200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>44600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>48900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E9" s="3">
         <v>26200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>23500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>29900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>29500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>32600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>35000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E10" s="3">
         <v>36600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>22200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +826,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E12" s="3">
         <v>8500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,13 +888,16 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>11200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -886,22 +906,25 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -929,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E17" s="3">
         <v>58700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>51800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>52900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>58200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>61600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>86900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E18" s="3">
         <v>4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-17000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-38000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1010,66 +1043,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-31200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-9300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-13800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E21" s="3">
         <v>4400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-34000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>-33500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1137,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-45200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-45800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1800</v>
       </c>
       <c r="G24" s="3">
         <v>1800</v>
       </c>
       <c r="H24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I24" s="3">
         <v>-3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-47000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-45300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-47000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-45300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1425,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E32" s="3">
         <v>10700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>31200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>9300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>13800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-47000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-45300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-47000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-45300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1620,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>123200</v>
+      </c>
+      <c r="E41" s="3">
         <v>142900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>118500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>118800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>74600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>67000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="3">
         <v>67200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,124 +1682,139 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E43" s="3">
         <v>41500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>43200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>46300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="3">
         <v>35500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E44" s="3">
         <v>38800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>39400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>41000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>44900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>23600</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="3">
         <v>58000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>276800</v>
+      </c>
+      <c r="E46" s="3">
         <v>223200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>201900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>203000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>162500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>137000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="3">
         <v>160700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,66 +1842,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7200</v>
+        <v>8400</v>
       </c>
       <c r="E48" s="3">
         <v>7200</v>
       </c>
       <c r="F48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G48" s="3">
         <v>7600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="3">
         <v>6100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>568600</v>
+      </c>
+      <c r="E49" s="3">
         <v>301800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>311400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>324500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>336800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>360000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="3">
         <v>712400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1970,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1500</v>
       </c>
       <c r="F52" s="3">
         <v>1500</v>
       </c>
       <c r="G52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2034,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>855500</v>
+      </c>
+      <c r="E54" s="3">
         <v>533700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>522000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>536600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>507400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>505700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="3">
         <v>527100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2096,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>124300</v>
+      </c>
+      <c r="E57" s="3">
         <v>94900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>87200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>90200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>89400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="3">
         <v>78400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6000</v>
+        <v>28000</v>
       </c>
       <c r="E59" s="3">
         <v>6000</v>
       </c>
       <c r="F59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G59" s="3">
         <v>10900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="3">
         <v>23900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>153800</v>
+      </c>
+      <c r="E60" s="3">
         <v>101800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>94200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>101200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>114900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>108700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="3">
         <v>102200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E61" s="3">
         <v>198000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>195300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>188400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>190500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>186200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>178500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E62" s="3">
         <v>184500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>178100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>180900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>127400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>127900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="3">
         <v>114600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>549400</v>
+      </c>
+      <c r="E66" s="3">
         <v>484300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>467600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>470400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>432900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>422800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="3">
         <v>395300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-46900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-42100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>39900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="3">
         <v>336600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-97300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E76" s="3">
         <v>49300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>54400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>66100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>74600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>82900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" s="3">
         <v>131800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-47000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-45300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2833,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E83" s="3">
         <v>11000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10600</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="3">
         <v>12300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-124300</v>
+      </c>
+      <c r="E89" s="3">
         <v>29700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11400</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="3">
         <v>-28100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3071,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2860,28 +3081,31 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3165,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="3">
         <v>24600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3339,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>33100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="3">
         <v>60800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" s="3">
         <v>3200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E102" s="3">
         <v>24400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>43400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8300</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" s="3">
         <v>61000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>AMYT</t>
   </si>
@@ -1644,8 +1644,8 @@
       <c r="I41" s="3">
         <v>67000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>16</v>
+      <c r="J41" s="3">
+        <v>67200</v>
       </c>
       <c r="K41" s="3">
         <v>67200</v>
@@ -1708,8 +1708,8 @@
       <c r="I43" s="3">
         <v>46300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>16</v>
+      <c r="J43" s="3">
+        <v>35500</v>
       </c>
       <c r="K43" s="3">
         <v>35500</v>
@@ -1740,8 +1740,8 @@
       <c r="I44" s="3">
         <v>23600</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>16</v>
+      <c r="J44" s="3">
+        <v>58000</v>
       </c>
       <c r="K44" s="3">
         <v>58000</v>
@@ -1804,8 +1804,8 @@
       <c r="I46" s="3">
         <v>137000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>16</v>
+      <c r="J46" s="3">
+        <v>160700</v>
       </c>
       <c r="K46" s="3">
         <v>160700</v>
@@ -1868,8 +1868,8 @@
       <c r="I48" s="3">
         <v>7000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>16</v>
+      <c r="J48" s="3">
+        <v>6100</v>
       </c>
       <c r="K48" s="3">
         <v>6100</v>
@@ -1900,8 +1900,8 @@
       <c r="I49" s="3">
         <v>360000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>16</v>
+      <c r="J49" s="3">
+        <v>712400</v>
       </c>
       <c r="K49" s="3">
         <v>712400</v>
@@ -1996,8 +1996,8 @@
       <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>16</v>
+      <c r="J52" s="3">
+        <v>1900</v>
       </c>
       <c r="K52" s="3">
         <v>1900</v>
@@ -2060,8 +2060,8 @@
       <c r="I54" s="3">
         <v>505700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>16</v>
+      <c r="J54" s="3">
+        <v>527100</v>
       </c>
       <c r="K54" s="3">
         <v>527100</v>
@@ -2120,8 +2120,8 @@
       <c r="I57" s="3">
         <v>89400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>16</v>
+      <c r="J57" s="3">
+        <v>78400</v>
       </c>
       <c r="K57" s="3">
         <v>78400</v>
@@ -2184,8 +2184,8 @@
       <c r="I59" s="3">
         <v>19200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>16</v>
+      <c r="J59" s="3">
+        <v>23900</v>
       </c>
       <c r="K59" s="3">
         <v>23900</v>
@@ -2216,8 +2216,8 @@
       <c r="I60" s="3">
         <v>108700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>16</v>
+      <c r="J60" s="3">
+        <v>102200</v>
       </c>
       <c r="K60" s="3">
         <v>102200</v>
@@ -2249,7 +2249,7 @@
         <v>186200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>178500</v>
       </c>
       <c r="K61" s="3">
         <v>178500</v>
@@ -2280,8 +2280,8 @@
       <c r="I62" s="3">
         <v>127900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>16</v>
+      <c r="J62" s="3">
+        <v>114600</v>
       </c>
       <c r="K62" s="3">
         <v>114600</v>
@@ -2408,8 +2408,8 @@
       <c r="I66" s="3">
         <v>422800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>16</v>
+      <c r="J66" s="3">
+        <v>395300</v>
       </c>
       <c r="K66" s="3">
         <v>395300</v>
@@ -2582,8 +2582,8 @@
       <c r="I72" s="3">
         <v>39900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
+      <c r="J72" s="3">
+        <v>336600</v>
       </c>
       <c r="K72" s="3">
         <v>336600</v>
@@ -2710,8 +2710,8 @@
       <c r="I76" s="3">
         <v>82900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>16</v>
+      <c r="J76" s="3">
+        <v>131800</v>
       </c>
       <c r="K76" s="3">
         <v>131800</v>

--- a/AAII_Financials/Quarterly/AMYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMYT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,169 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E8" s="3">
         <v>56500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>62800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>48400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>42500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>49300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>46200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>44600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E9" s="3">
         <v>27300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>23500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>29900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>27100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>29500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>32600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E10" s="3">
         <v>29200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,40 +840,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E12" s="3">
         <v>11000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,17 +908,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>11200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -909,22 +929,25 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -955,8 +978,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +992,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E17" s="3">
         <v>77900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>58700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>51800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>56400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>52900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>58200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>61600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>86900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-38000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1044,72 +1077,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-11400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-31200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-13800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-19600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-34000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>-33500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1140,72 +1180,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-32700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-45200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-45800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-15500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1800</v>
       </c>
       <c r="H24" s="3">
         <v>1800</v>
       </c>
       <c r="I24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J24" s="3">
         <v>-3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1285,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-47000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-45300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-47000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-45300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1390,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1425,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1460,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,72 +1495,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E32" s="3">
         <v>11400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>31200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>13800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-47000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-45300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1600,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-47000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-45300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1692,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,40 +1707,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E41" s="3">
         <v>123200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>142900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>118500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>118800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>74600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>67000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>67200</v>
       </c>
       <c r="K41" s="3">
         <v>67200</v>
       </c>
       <c r="L41" s="3">
+        <v>67200</v>
+      </c>
+      <c r="M41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,95 +1775,104 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E43" s="3">
         <v>52800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>41500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>43200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>46300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>35500</v>
       </c>
       <c r="K43" s="3">
         <v>35500</v>
       </c>
       <c r="L43" s="3">
+        <v>35500</v>
+      </c>
+      <c r="M43" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E44" s="3">
         <v>100800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>38800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>39400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>41000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>44900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>23600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>58000</v>
       </c>
       <c r="K44" s="3">
         <v>58000</v>
       </c>
       <c r="L44" s="3">
+        <v>58000</v>
+      </c>
+      <c r="M44" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>16</v>
@@ -1781,40 +1880,46 @@
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>269600</v>
+      </c>
+      <c r="E46" s="3">
         <v>276800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>223200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>201900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>203000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>162500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>137000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>160700</v>
       </c>
       <c r="K46" s="3">
         <v>160700</v>
       </c>
       <c r="L46" s="3">
+        <v>160700</v>
+      </c>
+      <c r="M46" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1845,72 +1950,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E48" s="3">
         <v>8400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>7200</v>
       </c>
       <c r="F48" s="3">
         <v>7200</v>
       </c>
       <c r="G48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H48" s="3">
         <v>7600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6100</v>
       </c>
       <c r="K48" s="3">
         <v>6100</v>
       </c>
       <c r="L48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="M48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>508300</v>
+      </c>
+      <c r="E49" s="3">
         <v>568600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>301800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>311400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>324500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>336800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>360000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>712400</v>
       </c>
       <c r="K49" s="3">
         <v>712400</v>
       </c>
       <c r="L49" s="3">
+        <v>712400</v>
+      </c>
+      <c r="M49" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2055,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,40 +2090,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1500</v>
       </c>
       <c r="G52" s="3">
         <v>1500</v>
       </c>
       <c r="H52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1900</v>
       </c>
       <c r="K52" s="3">
         <v>1900</v>
       </c>
       <c r="L52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,40 +2160,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>786900</v>
+      </c>
+      <c r="E54" s="3">
         <v>855500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>533700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>522000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>536600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>507400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>505700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>527100</v>
       </c>
       <c r="K54" s="3">
         <v>527100</v>
       </c>
       <c r="L54" s="3">
+        <v>527100</v>
+      </c>
+      <c r="M54" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2212,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,200 +2227,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>136800</v>
+      </c>
+      <c r="E57" s="3">
         <v>124300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>94900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>87200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>90200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>89400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>78400</v>
       </c>
       <c r="K57" s="3">
         <v>78400</v>
       </c>
       <c r="L57" s="3">
+        <v>78400</v>
+      </c>
+      <c r="M57" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E59" s="3">
         <v>28000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>6000</v>
       </c>
       <c r="F59" s="3">
         <v>6000</v>
       </c>
       <c r="G59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H59" s="3">
         <v>10900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>23900</v>
       </c>
       <c r="K59" s="3">
         <v>23900</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="L59" s="3">
+        <v>23900</v>
+      </c>
+      <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E60" s="3">
         <v>153800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>101800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>94200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>101200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>114900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>108700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>102200</v>
       </c>
       <c r="K60" s="3">
         <v>102200</v>
       </c>
       <c r="L60" s="3">
+        <v>102200</v>
+      </c>
+      <c r="M60" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>209400</v>
+      </c>
+      <c r="E61" s="3">
         <v>200600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>198000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>195300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>188400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>190500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>186200</v>
-      </c>
-      <c r="J61" s="3">
-        <v>178500</v>
       </c>
       <c r="K61" s="3">
         <v>178500</v>
       </c>
       <c r="L61" s="3">
+        <v>178500</v>
+      </c>
+      <c r="M61" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E62" s="3">
         <v>195000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>184500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>178100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>180900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>127400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>127900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>114600</v>
       </c>
       <c r="K62" s="3">
         <v>114600</v>
       </c>
       <c r="L62" s="3">
+        <v>114600</v>
+      </c>
+      <c r="M62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2470,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2505,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,40 +2540,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>440900</v>
+      </c>
+      <c r="E66" s="3">
         <v>549400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>484300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>467600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>470400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>432900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>422800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>395300</v>
       </c>
       <c r="K66" s="3">
         <v>395300</v>
       </c>
       <c r="L66" s="3">
+        <v>395300</v>
+      </c>
+      <c r="M66" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2592,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2625,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2660,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2695,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,40 +2730,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-46900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-42100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>39900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>336600</v>
       </c>
       <c r="K72" s="3">
         <v>336600</v>
       </c>
       <c r="L72" s="3">
+        <v>336600</v>
+      </c>
+      <c r="M72" s="3">
         <v>-97300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2800,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2835,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,40 +2870,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E76" s="3">
         <v>306000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>54400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>66100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>74600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>82900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>131800</v>
       </c>
       <c r="K76" s="3">
         <v>131800</v>
       </c>
       <c r="L76" s="3">
+        <v>131800</v>
+      </c>
+      <c r="M76" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +2940,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-47000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-45300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,40 +3032,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E83" s="3">
         <v>13200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10600</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="3">
         <v>12300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3100,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3135,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3170,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3205,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3240,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-124300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11400</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="3">
         <v>-28100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,40 +3292,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3360,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,40 +3395,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>107800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="3">
         <v>24600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3447,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3480,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3515,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3550,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,100 +3585,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>33100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="3">
         <v>60800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="3">
         <v>3200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>43400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8300</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="3">
         <v>61000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>AMYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,182 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E8" s="3">
         <v>59100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>54800</v>
+      </c>
+      <c r="G8" s="3">
         <v>56500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>62800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>48400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>42500</v>
       </c>
-      <c r="I8" s="3">
-        <v>49300</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>46200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E9" s="3">
         <v>30800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>29200</v>
+      </c>
+      <c r="G9" s="3">
         <v>27300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>26200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>23500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>29900</v>
       </c>
-      <c r="I9" s="3">
-        <v>27100</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>29500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>35000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E10" s="3">
         <v>28300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>25600</v>
+      </c>
+      <c r="G10" s="3">
         <v>29200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>36600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>24900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>12600</v>
       </c>
-      <c r="I10" s="3">
-        <v>22200</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,43 +854,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E12" s="3">
         <v>9900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G12" s="3">
         <v>11000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>8500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>8900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5100</v>
       </c>
-      <c r="I12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,43 +928,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G14" s="3">
         <v>11200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,8 +1004,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,78 +1019,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E17" s="3">
         <v>71900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>72700</v>
+      </c>
+      <c r="G17" s="3">
         <v>77900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>58700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>51800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>56400</v>
       </c>
-      <c r="I17" s="3">
-        <v>52900</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>58200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>86900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-21400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-13900</v>
       </c>
-      <c r="I18" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-38000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1078,78 +1111,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>66600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-11400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-10700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-12500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-31200</v>
       </c>
-      <c r="I20" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>64200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-19600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-34000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>-33500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1183,78 +1223,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>48700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-32700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-15900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-45200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-30800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-45800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G24" s="3">
         <v>-15500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-17200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-16500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-47000</v>
       </c>
-      <c r="I26" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-28900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-45300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-17200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-16500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-47000</v>
       </c>
-      <c r="I27" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-45300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1451,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,8 +1489,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,78 +1565,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>12200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-66600</v>
+      </c>
+      <c r="G32" s="3">
         <v>11400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>10700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>12500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>31200</v>
       </c>
-      <c r="I32" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-17200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-16500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-47000</v>
       </c>
-      <c r="I33" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-45300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-17200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-16500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-47000</v>
       </c>
-      <c r="I35" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-45300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,43 +1794,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E41" s="3">
         <v>102200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>112800</v>
+      </c>
+      <c r="G41" s="3">
         <v>123200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>142900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>118500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>118800</v>
       </c>
-      <c r="I41" s="3">
-        <v>74600</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>67000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>67200</v>
       </c>
       <c r="L41" s="3">
         <v>67200</v>
       </c>
       <c r="M41" s="3">
+        <v>67200</v>
+      </c>
+      <c r="N41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,104 +1868,113 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E43" s="3">
         <v>47400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>53900</v>
+      </c>
+      <c r="G43" s="3">
         <v>52800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>41500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>44000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>43200</v>
       </c>
-      <c r="I43" s="3">
-        <v>42200</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>46300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>35500</v>
       </c>
       <c r="L43" s="3">
         <v>35500</v>
       </c>
       <c r="M43" s="3">
+        <v>35500</v>
+      </c>
+      <c r="N43" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E44" s="3">
         <v>120100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>115800</v>
+      </c>
+      <c r="G44" s="3">
         <v>100800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>38800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>39400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>41000</v>
       </c>
-      <c r="I44" s="3">
-        <v>44900</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>23600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>58000</v>
       </c>
       <c r="L44" s="3">
         <v>58000</v>
       </c>
       <c r="M44" s="3">
+        <v>58000</v>
+      </c>
+      <c r="N44" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I45" s="3">
-        <v>800</v>
-      </c>
-      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>16</v>
@@ -1883,43 +1982,49 @@
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>265300</v>
+      </c>
+      <c r="E46" s="3">
         <v>269600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>282700</v>
+      </c>
+      <c r="G46" s="3">
         <v>276800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>223200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>201900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>203000</v>
       </c>
-      <c r="I46" s="3">
-        <v>162500</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>137000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>160700</v>
       </c>
       <c r="L46" s="3">
         <v>160700</v>
       </c>
       <c r="M46" s="3">
+        <v>160700</v>
+      </c>
+      <c r="N46" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1953,8 +2058,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1962,69 +2070,75 @@
         <v>7100</v>
       </c>
       <c r="E48" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G48" s="3">
         <v>8400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>7200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>7600</v>
       </c>
-      <c r="I48" s="3">
-        <v>6900</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>6100</v>
       </c>
       <c r="L48" s="3">
         <v>6100</v>
       </c>
       <c r="M48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="N48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>490500</v>
+      </c>
+      <c r="E49" s="3">
         <v>508300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>524000</v>
+      </c>
+      <c r="G49" s="3">
         <v>568600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>301800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>311400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>324500</v>
       </c>
-      <c r="I49" s="3">
-        <v>336800</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>360000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>712400</v>
       </c>
       <c r="L49" s="3">
         <v>712400</v>
       </c>
       <c r="M49" s="3">
+        <v>712400</v>
+      </c>
+      <c r="N49" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,43 +2210,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1900</v>
       </c>
       <c r="L52" s="3">
         <v>1900</v>
       </c>
       <c r="M52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2286,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>764700</v>
+      </c>
+      <c r="E54" s="3">
         <v>786900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>816100</v>
+      </c>
+      <c r="G54" s="3">
         <v>855500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>533700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>522000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>536600</v>
       </c>
-      <c r="I54" s="3">
-        <v>507400</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>505700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>527100</v>
       </c>
       <c r="L54" s="3">
         <v>527100</v>
       </c>
       <c r="M54" s="3">
+        <v>527100</v>
+      </c>
+      <c r="N54" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,218 +2358,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E57" s="3">
         <v>136800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>149700</v>
+      </c>
+      <c r="G57" s="3">
         <v>124300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>94900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>87200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>90200</v>
       </c>
-      <c r="I57" s="3">
-        <v>100200</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>89400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>78400</v>
       </c>
       <c r="L57" s="3">
         <v>78400</v>
       </c>
       <c r="M57" s="3">
+        <v>78400</v>
+      </c>
+      <c r="N57" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="3">
-        <v>800</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E59" s="3">
         <v>6000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>28000</v>
       </c>
       <c r="F59" s="3">
         <v>6000</v>
       </c>
       <c r="G59" s="3">
+        <v>28000</v>
+      </c>
+      <c r="H59" s="3">
         <v>6000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J59" s="3">
         <v>10900</v>
       </c>
-      <c r="I59" s="3">
-        <v>13900</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>23900</v>
       </c>
       <c r="L59" s="3">
         <v>23900</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="M59" s="3">
+        <v>23900</v>
+      </c>
+      <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E60" s="3">
         <v>143700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>157300</v>
+      </c>
+      <c r="G60" s="3">
         <v>153800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>101800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>94200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>101200</v>
       </c>
-      <c r="I60" s="3">
-        <v>114900</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>108700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>102200</v>
       </c>
       <c r="L60" s="3">
         <v>102200</v>
       </c>
       <c r="M60" s="3">
+        <v>102200</v>
+      </c>
+      <c r="N60" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>210600</v>
+      </c>
+      <c r="E61" s="3">
         <v>209400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>203200</v>
+      </c>
+      <c r="G61" s="3">
         <v>200600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>198000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>195300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>188400</v>
       </c>
-      <c r="I61" s="3">
-        <v>190500</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>186200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>178500</v>
       </c>
       <c r="L61" s="3">
         <v>178500</v>
       </c>
       <c r="M61" s="3">
+        <v>178500</v>
+      </c>
+      <c r="N61" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E62" s="3">
         <v>87800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>98900</v>
+      </c>
+      <c r="G62" s="3">
         <v>195000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>184500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>178100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>180900</v>
       </c>
-      <c r="I62" s="3">
-        <v>127400</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>127900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>114600</v>
       </c>
       <c r="L62" s="3">
         <v>114600</v>
       </c>
       <c r="M62" s="3">
+        <v>114600</v>
+      </c>
+      <c r="N62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,43 +2698,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>422700</v>
+      </c>
+      <c r="E66" s="3">
         <v>440900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>459400</v>
+      </c>
+      <c r="G66" s="3">
         <v>549400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>484300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>467600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>470400</v>
       </c>
-      <c r="I66" s="3">
-        <v>432900</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>422800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>395300</v>
       </c>
       <c r="L66" s="3">
         <v>395300</v>
       </c>
       <c r="M66" s="3">
+        <v>395300</v>
+      </c>
+      <c r="N66" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +2904,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-60100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-46900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-42100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>900</v>
       </c>
-      <c r="I72" s="3">
-        <v>18800</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>39900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>336600</v>
       </c>
       <c r="L72" s="3">
         <v>336600</v>
       </c>
       <c r="M72" s="3">
+        <v>336600</v>
+      </c>
+      <c r="N72" s="3">
         <v>-97300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3056,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E76" s="3">
         <v>346000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>356700</v>
+      </c>
+      <c r="G76" s="3">
         <v>306000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>49300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>54400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>66100</v>
       </c>
-      <c r="I76" s="3">
-        <v>74600</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>82900</v>
-      </c>
-      <c r="K76" s="3">
-        <v>131800</v>
       </c>
       <c r="L76" s="3">
         <v>131800</v>
       </c>
       <c r="M76" s="3">
+        <v>131800</v>
+      </c>
+      <c r="N76" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-17200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-16500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-47000</v>
       </c>
-      <c r="I81" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-45300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,43 +3231,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E83" s="3">
         <v>14800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>15500</v>
+      </c>
+      <c r="G83" s="3">
         <v>13200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>11000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>11100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>11200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="3">
         <v>12300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3457,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>107400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-124300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>29700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>11400</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="3">
         <v>-28100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,43 +3513,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
+      <c r="J91" s="3">
+        <v>-1400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,43 +3625,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G94" s="3">
         <v>107800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="3">
         <v>24600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3717,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,109 +3831,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>-116900</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-4900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>33100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="3">
         <v>60800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>6600</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="3">
         <v>3200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-19800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>24400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>43400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>8300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="3">
         <v>61000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>AMYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,195 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E8" s="3">
         <v>68500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>59100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>54800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>56500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>62800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>48400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>42500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>48900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E9" s="3">
         <v>33400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>29200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>23500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>29900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>29500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>35000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E10" s="3">
         <v>35100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>29200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,46 +868,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E12" s="3">
         <v>10700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,26 +948,29 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -961,16 +981,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E17" s="3">
         <v>75400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>71900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>72700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>77900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>58700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>51800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>56400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>86900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-38000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1112,84 +1145,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-7600</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-12200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>66600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-11400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-31200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>7900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>64200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-34000</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>-33500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1226,84 +1266,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-25000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>48700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-32700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-45200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-30800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-45800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-10500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-15500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>41500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-47000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-28900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-45300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>41500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-47000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-28900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-45300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1635,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>12200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-66600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>11400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>31200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>41500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-47000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-28900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-45300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>41500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-47000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-28900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-45300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,46 +1881,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E41" s="3">
         <v>90600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>102200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>112800</v>
       </c>
-      <c r="G41" s="3">
-        <v>123200</v>
-      </c>
       <c r="H41" s="3">
+        <v>235900</v>
+      </c>
+      <c r="I41" s="3">
         <v>142900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>118500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>118800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>67200</v>
       </c>
       <c r="M41" s="3">
         <v>67200</v>
       </c>
       <c r="N41" s="3">
+        <v>67200</v>
+      </c>
+      <c r="O41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,84 +1961,93 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E43" s="3">
         <v>50400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>47400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>53900</v>
       </c>
-      <c r="G43" s="3">
-        <v>52800</v>
-      </c>
       <c r="H43" s="3">
+        <v>53900</v>
+      </c>
+      <c r="I43" s="3">
         <v>41500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>43200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>35500</v>
       </c>
       <c r="M43" s="3">
         <v>35500</v>
       </c>
       <c r="N43" s="3">
+        <v>35500</v>
+      </c>
+      <c r="O43" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E44" s="3">
         <v>124200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>120100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>115800</v>
       </c>
-      <c r="G44" s="3">
-        <v>100800</v>
-      </c>
       <c r="H44" s="3">
+        <v>81800</v>
+      </c>
+      <c r="I44" s="3">
         <v>38800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>39400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>41000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23600</v>
-      </c>
-      <c r="L44" s="3">
-        <v>58000</v>
       </c>
       <c r="M44" s="3">
         <v>58000</v>
       </c>
       <c r="N44" s="3">
+        <v>58000</v>
+      </c>
+      <c r="O44" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1956,28 +2055,28 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>16</v>
@@ -1985,46 +2084,52 @@
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>224400</v>
+      </c>
+      <c r="E46" s="3">
         <v>265300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>269600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>282700</v>
       </c>
-      <c r="G46" s="3">
-        <v>276800</v>
-      </c>
       <c r="H46" s="3">
+        <v>248800</v>
+      </c>
+      <c r="I46" s="3">
         <v>223200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>201900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>203000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>137000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>160700</v>
       </c>
       <c r="M46" s="3">
         <v>160700</v>
       </c>
       <c r="N46" s="3">
+        <v>160700</v>
+      </c>
+      <c r="O46" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2061,84 +2166,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="E48" s="3">
         <v>7100</v>
       </c>
       <c r="F48" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G48" s="3">
         <v>7400</v>
       </c>
-      <c r="G48" s="3">
-        <v>8400</v>
-      </c>
       <c r="H48" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="I48" s="3">
         <v>7200</v>
       </c>
       <c r="J48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K48" s="3">
         <v>7600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>6100</v>
       </c>
       <c r="M48" s="3">
         <v>6100</v>
       </c>
       <c r="N48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="O48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>503900</v>
+      </c>
+      <c r="E49" s="3">
         <v>490500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>508300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>524000</v>
       </c>
-      <c r="G49" s="3">
-        <v>568600</v>
-      </c>
       <c r="H49" s="3">
+        <v>557500</v>
+      </c>
+      <c r="I49" s="3">
         <v>301800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>311400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>324500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>360000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>712400</v>
       </c>
       <c r="M49" s="3">
         <v>712400</v>
       </c>
       <c r="N49" s="3">
+        <v>712400</v>
+      </c>
+      <c r="O49" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,46 +2330,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1900</v>
       </c>
       <c r="F52" s="3">
         <v>1900</v>
       </c>
       <c r="G52" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="H52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I52" s="3">
         <v>1400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1500</v>
       </c>
       <c r="J52" s="3">
         <v>1500</v>
       </c>
       <c r="K52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L52" s="3">
         <v>1800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1900</v>
       </c>
       <c r="M52" s="3">
         <v>1900</v>
       </c>
       <c r="N52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>736900</v>
+      </c>
+      <c r="E54" s="3">
         <v>764700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>786900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>816100</v>
       </c>
-      <c r="G54" s="3">
-        <v>855500</v>
-      </c>
       <c r="H54" s="3">
+        <v>815500</v>
+      </c>
+      <c r="I54" s="3">
         <v>533700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>522000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>536600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>505700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>527100</v>
       </c>
       <c r="M54" s="3">
         <v>527100</v>
       </c>
       <c r="N54" s="3">
+        <v>527100</v>
+      </c>
+      <c r="O54" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,98 +2489,105 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>134900</v>
+      </c>
+      <c r="E57" s="3">
         <v>127900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>136800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>149700</v>
       </c>
-      <c r="G57" s="3">
-        <v>124300</v>
-      </c>
       <c r="H57" s="3">
+        <v>149700</v>
+      </c>
+      <c r="I57" s="3">
         <v>94900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>87200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>90200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>89400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>78400</v>
       </c>
       <c r="M57" s="3">
         <v>78400</v>
       </c>
       <c r="N57" s="3">
+        <v>78400</v>
+      </c>
+      <c r="O57" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1500</v>
       </c>
       <c r="G58" s="3">
         <v>1500</v>
       </c>
       <c r="H58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E59" s="3">
         <v>22200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>6000</v>
       </c>
       <c r="F59" s="3">
         <v>6000</v>
       </c>
       <c r="G59" s="3">
-        <v>28000</v>
+        <v>6000</v>
       </c>
       <c r="H59" s="3">
         <v>6000</v>
@@ -2459,136 +2596,148 @@
         <v>6000</v>
       </c>
       <c r="J59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K59" s="3">
         <v>10900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>23900</v>
       </c>
       <c r="M59" s="3">
         <v>23900</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="N59" s="3">
+        <v>23900</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E60" s="3">
         <v>151000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>143700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>157300</v>
       </c>
-      <c r="G60" s="3">
-        <v>153800</v>
-      </c>
       <c r="H60" s="3">
+        <v>157300</v>
+      </c>
+      <c r="I60" s="3">
         <v>101800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>94200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>101200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>108700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>102200</v>
       </c>
       <c r="M60" s="3">
         <v>102200</v>
       </c>
       <c r="N60" s="3">
+        <v>102200</v>
+      </c>
+      <c r="O60" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>211800</v>
+      </c>
+      <c r="E61" s="3">
         <v>210600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>209400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>203200</v>
       </c>
-      <c r="G61" s="3">
-        <v>200600</v>
-      </c>
       <c r="H61" s="3">
+        <v>203200</v>
+      </c>
+      <c r="I61" s="3">
         <v>198000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>195300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>188400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>186200</v>
-      </c>
-      <c r="L61" s="3">
-        <v>178500</v>
       </c>
       <c r="M61" s="3">
         <v>178500</v>
       </c>
       <c r="N61" s="3">
+        <v>178500</v>
+      </c>
+      <c r="O61" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E62" s="3">
         <v>61100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>87800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>98900</v>
       </c>
-      <c r="G62" s="3">
-        <v>195000</v>
-      </c>
       <c r="H62" s="3">
+        <v>96300</v>
+      </c>
+      <c r="I62" s="3">
         <v>184500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>178100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>180900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>127900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>114600</v>
       </c>
       <c r="M62" s="3">
         <v>114600</v>
       </c>
       <c r="N62" s="3">
+        <v>114600</v>
+      </c>
+      <c r="O62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +2856,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>412600</v>
+      </c>
+      <c r="E66" s="3">
         <v>422700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>440900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>459400</v>
       </c>
-      <c r="G66" s="3">
-        <v>549400</v>
-      </c>
       <c r="H66" s="3">
+        <v>456800</v>
+      </c>
+      <c r="I66" s="3">
         <v>484300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>467600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>470400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>422800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>395300</v>
       </c>
       <c r="M66" s="3">
         <v>395300</v>
       </c>
       <c r="N66" s="3">
+        <v>395300</v>
+      </c>
+      <c r="O66" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-45700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-26400</v>
       </c>
-      <c r="G72" s="3">
-        <v>-60100</v>
-      </c>
       <c r="H72" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-46900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-42100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39900</v>
-      </c>
-      <c r="L72" s="3">
-        <v>336600</v>
       </c>
       <c r="M72" s="3">
         <v>336600</v>
       </c>
       <c r="N72" s="3">
+        <v>336600</v>
+      </c>
+      <c r="O72" s="3">
         <v>-97300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>324300</v>
+      </c>
+      <c r="E76" s="3">
         <v>342000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>346000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>356700</v>
       </c>
-      <c r="G76" s="3">
-        <v>306000</v>
-      </c>
       <c r="H76" s="3">
+        <v>358800</v>
+      </c>
+      <c r="I76" s="3">
         <v>49300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>54400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>66100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>82900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>131800</v>
       </c>
       <c r="M76" s="3">
         <v>131800</v>
       </c>
       <c r="N76" s="3">
+        <v>131800</v>
+      </c>
+      <c r="O76" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>41500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-47000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-28900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-45300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,46 +3430,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E83" s="3">
         <v>14900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11200</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="3">
         <v>12300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>107400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-124300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>29700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5800</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N89" s="3">
         <v>-28100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,8 +3734,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3523,37 +3744,40 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,46 +3855,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>107800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" s="3">
         <v>24600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,118 +4077,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-116900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>33100</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N100" s="3">
         <v>60800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6600</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101" s="3">
         <v>3200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>24400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>43400</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" s="3">
         <v>61000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5000</v>
       </c>
     </row>
